--- a/Program/Other/URS會議審查紀錄/DbLayouts/L7-介接外部系統/LoanIfrs9Bp.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L7-介接外部系統/LoanIfrs9Bp.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L7-介接外部系統\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L7-介接外部系統\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{142EA2BF-BCDD-4907-AF18-819888951EC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C20BCC62-2D38-48E9-9B4D-052937043B8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -285,19 +285,6 @@
     <t>RateCode</t>
   </si>
   <si>
-    <t>至小數點後第6位。例如，利率為2.12%，則本欄位值表示0.021200
-ex:五月底給資料，則機動/階梯型利率需拋出契約約定之多段加碼幅度後利率(浮動利率i以現在的i代入)；但固定則需六月之後的利率都要給(用以估算未來的現金流量)
-浮動階梯以尚未生效的利率加碼值，算出利率後拋出</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1=機動；
-2=固定；
-3=固定階梯；
-4=浮動階梯；</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>EffectDate</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1043,6 +1030,19 @@
   <si>
     <t>Usp_L7_LoanIfrs9Bp_Upd</t>
     <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>至小數點後第6位。例如，利率為2.12%，則本欄位值表示0.021200
+ex：五月底給資料，則機動/階梯型利率需拋出契約約定之多段加碼幅度後利率(浮動利率i以現在的i代入)；但固定則需六月之後的利率都要給(用以估算未來的現金流量)
+浮動階梯以尚未生效的利率加碼值，算出利率後拋出</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:機動
+2:固定
+3:固定階梯
+4:浮動階梯</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1883,8 +1883,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H71"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="72.88671875" defaultRowHeight="16.2"/>
@@ -1905,10 +1905,10 @@
       </c>
       <c r="B1" s="50"/>
       <c r="C1" s="8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E1" s="19"/>
       <c r="F1" s="10"/>
@@ -1935,7 +1935,7 @@
       </c>
       <c r="B3" s="50"/>
       <c r="C3" s="23" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D3" s="15"/>
       <c r="E3" s="19"/>
@@ -2014,7 +2014,7 @@
         <v>9</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="7" customFormat="1">
@@ -2022,7 +2022,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C9" s="21" t="s">
         <v>36</v>
@@ -2036,7 +2036,7 @@
       <c r="F9" s="17"/>
       <c r="G9" s="17"/>
       <c r="H9" s="47" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="7" customFormat="1">
@@ -2058,7 +2058,7 @@
       <c r="F10" s="17"/>
       <c r="G10" s="17"/>
       <c r="H10" s="47" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2080,7 +2080,7 @@
       <c r="F11" s="17"/>
       <c r="G11" s="17"/>
       <c r="H11" s="47" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2102,7 +2102,7 @@
       <c r="F12" s="17"/>
       <c r="G12" s="17"/>
       <c r="H12" s="47" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2124,7 +2124,7 @@
       <c r="F13" s="17"/>
       <c r="G13" s="17"/>
       <c r="H13" s="47" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="97.2">
@@ -2132,7 +2132,7 @@
         <v>6</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C14" s="21" t="s">
         <v>42</v>
@@ -2147,10 +2147,10 @@
         <v>6</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="H14" s="48" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="145.80000000000001">
@@ -2171,10 +2171,10 @@
       </c>
       <c r="F15" s="17"/>
       <c r="G15" s="17" t="s">
-        <v>47</v>
+        <v>96</v>
       </c>
       <c r="H15" s="47" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2182,7 +2182,7 @@
         <v>8</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C16" s="21" t="s">
         <v>44</v>
@@ -2195,10 +2195,10 @@
       </c>
       <c r="F16" s="17"/>
       <c r="G16" s="17" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H16" s="47" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2842,7 +2842,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -2856,24 +2856,24 @@
   <sheetData>
     <row r="1" spans="1:3" s="24" customFormat="1">
       <c r="A1" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="24" t="s">
         <v>53</v>
-      </c>
-      <c r="B1" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="C1" s="24" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="25" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -2898,22 +2898,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="25" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="48.6">
       <c r="A2" s="46" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="48.6">
       <c r="A3" s="46" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="64.8">
       <c r="A4" s="46" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:1">
@@ -3414,40 +3414,40 @@
   <sheetData>
     <row r="1" spans="1:6" ht="21.6">
       <c r="A1" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="29" customFormat="1" ht="15.6">
       <c r="A2" s="28" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.6">
       <c r="A3" s="30" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B3" s="31"/>
     </row>
     <row r="4" spans="1:6" ht="15.6">
       <c r="A4" s="32" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="13.8">
       <c r="A5" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="B5" s="33" t="s">
+      <c r="D5" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="C5" s="34" t="s">
+      <c r="E5" s="34" t="s">
         <v>62</v>
-      </c>
-      <c r="D5" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="E5" s="34" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="12.75" customHeight="1">
@@ -3455,7 +3455,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="36" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C6" s="36"/>
       <c r="D6" s="37"/>
@@ -3466,7 +3466,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="36" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C7" s="36"/>
       <c r="D7" s="37"/>
@@ -3477,7 +3477,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="36" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C8" s="36"/>
       <c r="D8" s="37"/>
@@ -3488,7 +3488,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="36" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C9" s="36"/>
       <c r="D9" s="37"/>
@@ -3500,13 +3500,13 @@
         <v>5</v>
       </c>
       <c r="B10" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" s="41" t="s">
         <v>69</v>
-      </c>
-      <c r="C10" s="40" t="s">
-        <v>70</v>
-      </c>
-      <c r="D10" s="41" t="s">
-        <v>71</v>
       </c>
       <c r="E10" s="37"/>
     </row>
@@ -3515,13 +3515,13 @@
         <v>6</v>
       </c>
       <c r="B11" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" s="37" t="s">
         <v>72</v>
-      </c>
-      <c r="C11" s="42" t="s">
-        <v>73</v>
-      </c>
-      <c r="D11" s="37" t="s">
-        <v>74</v>
       </c>
       <c r="E11" s="43"/>
     </row>
@@ -3530,19 +3530,19 @@
         <v>7</v>
       </c>
       <c r="B12" s="43" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C12" s="42" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D12" s="43" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E12" s="37"/>
     </row>
     <row r="15" spans="1:6" ht="13.8">
       <c r="A15" s="44" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="3:3">
